--- a/documentation/SampleReport.xlsx
+++ b/documentation/SampleReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -120,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,13 +369,29 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -390,6 +406,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -423,34 +440,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="117148672"/>
-        <c:axId val="156427008"/>
+        <c:smooth val="0"/>
+        <c:axId val="161153792"/>
+        <c:axId val="161155328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117148672"/>
+        <c:axId val="161153792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156427008"/>
+        <c:crossAx val="161155328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156427008"/>
+        <c:axId val="161155328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117148672"/>
+        <c:crossAx val="161153792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -458,8 +492,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -471,8 +508,19 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -487,6 +535,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -520,34 +569,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="120184192"/>
-        <c:axId val="120267904"/>
+        <c:smooth val="0"/>
+        <c:axId val="162732288"/>
+        <c:axId val="162734080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120184192"/>
+        <c:axId val="162732288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120267904"/>
+        <c:crossAx val="162734080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120267904"/>
+        <c:axId val="162734080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120184192"/>
+        <c:crossAx val="162732288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -555,8 +621,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -566,7 +635,147 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="62" dropStyle="combo" dx="16" fmlaLink="elections" fmlaRange="$J$4:$J$7" sel="3" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="62" dropStyle="combo" dx="16" fmlaLink="elections" fmlaRange="$J$10:$J$14" sel="3" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="62" dropStyle="combo" dx="16" fmlaLink="elections" fmlaRange="$J$16:$J$19" sel="3" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Drop Down 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -601,7 +810,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -711,6 +920,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -745,6 +955,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -920,21 +1131,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:12" ht="26.25">
+    <row r="1" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
@@ -949,7 +1160,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -964,7 +1175,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="2:12" ht="18.75">
+    <row r="4" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
@@ -985,7 +1196,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -1000,7 +1211,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -1015,7 +1226,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1030,7 +1241,7 @@
       <c r="K7" s="19"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -1043,7 +1254,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -1056,7 +1267,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75">
+    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1288,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -1092,7 +1303,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -1107,7 +1318,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -1122,7 +1333,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -1137,7 +1348,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -1150,7 +1361,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75">
+    <row r="16" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1382,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -1186,7 +1397,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -1201,7 +1412,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -1216,7 +1427,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -1231,7 +1442,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -1248,45 +1459,118 @@
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId6" name="Drop Down 3">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1297,7 +1581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1308,7 +1592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1319,7 +1603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1330,7 +1614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1341,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1352,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1363,22 +1647,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44</v>
       </c>
@@ -1389,18 +1673,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
@@ -1411,7 +1695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -1422,7 +1706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -1433,7 +1717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -1444,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>4</v>
       </c>
@@ -1455,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>5</v>
       </c>
@@ -1466,7 +1750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>6</v>
       </c>
@@ -1477,22 +1761,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44</v>
       </c>
@@ -1503,13 +1787,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
@@ -1521,51 +1805,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1576,7 +1860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1587,7 +1871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1598,7 +1882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1609,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1620,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1631,22 +1915,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44</v>
       </c>
@@ -1657,29 +1941,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -1690,7 +1974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -1701,7 +1985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -1712,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>4</v>
       </c>
@@ -1723,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>5</v>
       </c>
@@ -1734,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>6</v>
       </c>
@@ -1745,22 +2029,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44</v>
       </c>
@@ -1771,13 +2055,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
